--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -540,10 +540,10 @@
         <v>0.194402</v>
       </c>
       <c r="I2">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J2">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.660964666666667</v>
+        <v>1.321358333333333</v>
       </c>
       <c r="N2">
-        <v>4.982894</v>
+        <v>3.964075</v>
       </c>
       <c r="O2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="P2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="Q2">
-        <v>0.1076316177097778</v>
+        <v>0.08562490090555554</v>
       </c>
       <c r="R2">
-        <v>0.9686845593879999</v>
+        <v>0.7706241081499999</v>
       </c>
       <c r="S2">
-        <v>0.02507646024268409</v>
+        <v>0.03558603525156914</v>
       </c>
       <c r="T2">
-        <v>0.02507646024268409</v>
+        <v>0.03558603525156914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.194402</v>
       </c>
       <c r="I3">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J3">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.17006</v>
       </c>
       <c r="O3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="P3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="Q3">
         <v>0.5652791115688889</v>
       </c>
       <c r="R3">
-        <v>5.087512004120001</v>
+        <v>5.08751200412</v>
       </c>
       <c r="S3">
-        <v>0.1317010695267965</v>
+        <v>0.2349321538305101</v>
       </c>
       <c r="T3">
-        <v>0.1317010695267965</v>
+        <v>0.2349321538305101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.194402</v>
       </c>
       <c r="I4">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J4">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.610381</v>
+        <v>9.093439666666667</v>
       </c>
       <c r="N4">
-        <v>22.831143</v>
+        <v>27.280319</v>
       </c>
       <c r="O4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="P4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
       <c r="Q4">
-        <v>0.4931577623873333</v>
+        <v>0.5892609526931111</v>
       </c>
       <c r="R4">
-        <v>4.438419861486</v>
+        <v>5.303348574237999</v>
       </c>
       <c r="S4">
-        <v>0.1148979387750442</v>
+        <v>0.2448990984297853</v>
       </c>
       <c r="T4">
-        <v>0.1148979387750442</v>
+        <v>0.2448990984297853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H5">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I5">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J5">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.660964666666667</v>
+        <v>1.321358333333333</v>
       </c>
       <c r="N5">
-        <v>4.982894</v>
+        <v>3.964075</v>
       </c>
       <c r="O5">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="P5">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="Q5">
-        <v>0.2885455501677778</v>
+        <v>0.08050243509999999</v>
       </c>
       <c r="R5">
-        <v>2.59690995151</v>
+        <v>0.7245219158999999</v>
       </c>
       <c r="S5">
-        <v>0.06722653780505577</v>
+        <v>0.03345711893396053</v>
       </c>
       <c r="T5">
-        <v>0.06722653780505577</v>
+        <v>0.03345711893396052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H6">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I6">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J6">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>26.17006</v>
       </c>
       <c r="O6">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="P6">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="Q6">
-        <v>1.515435479988889</v>
+        <v>0.53146157848</v>
       </c>
       <c r="R6">
-        <v>13.6389193199</v>
+        <v>4.78315420632</v>
       </c>
       <c r="S6">
-        <v>0.3530724370116198</v>
+        <v>0.2208774581532597</v>
       </c>
       <c r="T6">
-        <v>0.3530724370116198</v>
+        <v>0.2208774581532597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H7">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I7">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J7">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.610381</v>
+        <v>9.093439666666667</v>
       </c>
       <c r="N7">
-        <v>22.831143</v>
+        <v>27.280319</v>
       </c>
       <c r="O7">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="P7">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
       <c r="Q7">
-        <v>1.322088071288333</v>
+        <v>0.554008718252</v>
       </c>
       <c r="R7">
-        <v>11.898792641595</v>
+        <v>4.986078464267999</v>
       </c>
       <c r="S7">
-        <v>0.3080255566387996</v>
+        <v>0.2302481354009153</v>
       </c>
       <c r="T7">
-        <v>0.3080255566387995</v>
+        <v>0.2302481354009152</v>
       </c>
     </row>
   </sheetData>
